--- a/projects/DC_analysis/PTool_1_of_5.xlsx
+++ b/projects/DC_analysis/PTool_1_of_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="3000" windowWidth="10296" windowHeight="2364" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="3000" windowWidth="10296" windowHeight="2364" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="493">
   <si>
     <t>type</t>
   </si>
@@ -5754,7 +5754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6190,9 +6190,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z135"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:B21"/>
+      <selection pane="bottomLeft" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6527,6 +6527,9 @@
       <c r="P9" s="30" t="s">
         <v>263</v>
       </c>
+      <c r="R9" s="30" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="10" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="b">
@@ -6593,6 +6596,9 @@
         <v>263</v>
       </c>
       <c r="Q11" s="3"/>
+      <c r="R11" s="30" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="12" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="b">
@@ -6650,6 +6656,9 @@
       <c r="P13" s="30" t="s">
         <v>263</v>
       </c>
+      <c r="R13" s="30" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="b">
@@ -6708,7 +6717,9 @@
         <v>263</v>
       </c>
       <c r="Q15" s="37"/>
-      <c r="R15" s="2"/>
+      <c r="R15" s="30" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="16" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="b">
@@ -6772,6 +6783,9 @@
       <c r="P17" s="30" t="s">
         <v>263</v>
       </c>
+      <c r="R17" s="30" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="18" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="b">
@@ -6828,6 +6842,9 @@
       </c>
       <c r="P19" s="30" t="s">
         <v>263</v>
+      </c>
+      <c r="R19" s="30" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -6895,6 +6912,9 @@
         <v>263</v>
       </c>
       <c r="Q21" s="3"/>
+      <c r="R21" s="30" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I22" s="30"/>

--- a/projects/DC_analysis/PTool_1_of_5.xlsx
+++ b/projects/DC_analysis/PTool_1_of_5.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="493">
   <si>
     <t>type</t>
   </si>
@@ -895,9 +895,6 @@
     <t>CommercialLightingWithCurrentLEDs</t>
   </si>
   <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -1520,6 +1517,9 @@
   </si>
   <si>
     <t>1.14.7</t>
+  </si>
+  <si>
+    <t>cluster1</t>
   </si>
 </sst>
 </file>
@@ -5754,7 +5754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5802,7 +5802,7 @@
         <v>84</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>85</v>
@@ -5813,7 +5813,7 @@
         <v>97</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>181</v>
@@ -5824,7 +5824,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>284</v>
+        <v>492</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>100</v>
@@ -5873,7 +5873,7 @@
         <v>86</v>
       </c>
       <c r="B9" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="31"/>
@@ -5895,7 +5895,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>99</v>
@@ -6190,9 +6190,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6476,13 +6476,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>339</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>50</v>
@@ -6501,9 +6501,7 @@
       <c r="E9" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>321</v>
-      </c>
+      <c r="F9" s="29"/>
       <c r="G9" s="29" t="s">
         <v>45</v>
       </c>
@@ -6536,13 +6534,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>344</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>345</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>50</v>
@@ -6569,9 +6567,7 @@
       <c r="E11" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>321</v>
-      </c>
+      <c r="F11" s="29"/>
       <c r="G11" s="29" t="s">
         <v>45</v>
       </c>
@@ -6605,13 +6601,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>364</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>365</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>50</v>
@@ -6630,9 +6626,7 @@
       <c r="E13" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>321</v>
-      </c>
+      <c r="F13" s="29"/>
       <c r="G13" s="29" t="s">
         <v>45</v>
       </c>
@@ -6665,13 +6659,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>382</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>383</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>50</v>
@@ -6690,9 +6684,7 @@
       <c r="E15" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="F15" s="29" t="s">
-        <v>321</v>
-      </c>
+      <c r="F15" s="29"/>
       <c r="G15" s="29" t="s">
         <v>45</v>
       </c>
@@ -6726,13 +6718,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>401</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>402</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>50</v>
@@ -6757,9 +6749,7 @@
       <c r="E17" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>321</v>
-      </c>
+      <c r="F17" s="29"/>
       <c r="G17" s="29" t="s">
         <v>45</v>
       </c>
@@ -6792,13 +6782,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="D18" s="35" t="s">
         <v>407</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>408</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>50</v>
@@ -6817,9 +6807,7 @@
       <c r="E19" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="F19" s="29" t="s">
-        <v>321</v>
-      </c>
+      <c r="F19" s="29"/>
       <c r="G19" s="29" t="s">
         <v>45</v>
       </c>
@@ -6885,9 +6873,7 @@
       <c r="E21" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>321</v>
-      </c>
+      <c r="F21" s="29"/>
       <c r="G21" s="29" t="s">
         <v>45</v>
       </c>
@@ -8273,13 +8259,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="53" t="s">
@@ -8301,13 +8287,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="53" t="s">
@@ -8329,13 +8315,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="53" t="s">
@@ -8357,13 +8343,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="53" t="s">
@@ -8385,13 +8371,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="53" t="s">
@@ -8413,13 +8399,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="53" t="s">
@@ -8732,13 +8718,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>320</v>
-      </c>
       <c r="D1" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>46</v>
@@ -8755,13 +8741,13 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>45</v>
@@ -8776,13 +8762,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>323</v>
-      </c>
       <c r="D3" s="29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>46</v>
@@ -8799,13 +8785,13 @@
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>45</v>
@@ -8820,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>49</v>
@@ -8843,13 +8829,13 @@
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>45</v>
@@ -8864,13 +8850,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>325</v>
-      </c>
       <c r="D7" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>46</v>
@@ -8887,13 +8873,13 @@
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>45</v>
@@ -8908,13 +8894,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>327</v>
-      </c>
       <c r="D9" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>46</v>
@@ -8931,13 +8917,13 @@
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>45</v>
@@ -8952,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>329</v>
-      </c>
       <c r="D11" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>46</v>
@@ -8975,13 +8961,13 @@
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>45</v>
@@ -8998,13 +8984,13 @@
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>306</v>
-      </c>
       <c r="F13" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>48</v>
@@ -9017,13 +9003,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>331</v>
-      </c>
       <c r="D14" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>46</v>
@@ -9040,13 +9026,13 @@
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>45</v>
@@ -9063,19 +9049,19 @@
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I16" s="29">
         <v>30</v>
@@ -9086,13 +9072,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>288</v>
-      </c>
       <c r="D17" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>46</v>
@@ -9109,13 +9095,13 @@
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>45</v>
@@ -9132,19 +9118,19 @@
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>334</v>
-      </c>
       <c r="F19" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I19" s="29">
         <v>1</v>
@@ -9157,13 +9143,13 @@
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>290</v>
-      </c>
       <c r="F20" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>44</v>
@@ -9180,13 +9166,13 @@
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>292</v>
-      </c>
       <c r="F21" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>44</v>
@@ -9203,13 +9189,13 @@
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="E22" s="29" t="s">
-        <v>294</v>
-      </c>
       <c r="F22" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>44</v>
@@ -9226,13 +9212,13 @@
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="E23" s="29" t="s">
-        <v>296</v>
-      </c>
       <c r="F23" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>44</v>
@@ -9249,13 +9235,13 @@
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>298</v>
-      </c>
       <c r="F24" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>44</v>
@@ -9272,13 +9258,13 @@
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="E25" s="29" t="s">
-        <v>300</v>
-      </c>
       <c r="F25" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>44</v>
@@ -9295,13 +9281,13 @@
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="E26" s="29" t="s">
-        <v>302</v>
-      </c>
       <c r="F26" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>44</v>
@@ -9318,13 +9304,13 @@
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>304</v>
-      </c>
       <c r="F27" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>44</v>
@@ -9339,13 +9325,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>337</v>
-      </c>
       <c r="D28" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>46</v>
@@ -9362,13 +9348,13 @@
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>45</v>
@@ -9383,13 +9369,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>339</v>
-      </c>
       <c r="D30" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>50</v>
@@ -9406,13 +9392,13 @@
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>45</v>
@@ -9427,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>339</v>
-      </c>
       <c r="D32" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>50</v>
@@ -9450,13 +9436,13 @@
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>45</v>
@@ -9471,13 +9457,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>341</v>
-      </c>
       <c r="D34" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>46</v>
@@ -9494,13 +9480,13 @@
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>45</v>
@@ -9515,13 +9501,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C36" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>343</v>
-      </c>
       <c r="D36" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E36" s="29" t="s">
         <v>46</v>
@@ -9538,13 +9524,13 @@
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>45</v>
@@ -9584,13 +9570,13 @@
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>43</v>
@@ -9607,19 +9593,19 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I40" s="29">
         <v>18</v>
@@ -9632,19 +9618,19 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E41" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I41" s="29">
         <v>9</v>
@@ -9657,13 +9643,13 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>43</v>
@@ -9680,19 +9666,19 @@
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G43" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I43" s="29">
         <v>18</v>
@@ -9705,19 +9691,19 @@
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>58</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I44" s="29">
         <v>9</v>
@@ -9730,13 +9716,13 @@
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E45" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G45" s="29" t="s">
         <v>43</v>
@@ -9753,19 +9739,19 @@
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E46" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G46" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I46" s="29">
         <v>18</v>
@@ -9778,19 +9764,19 @@
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I47" s="29">
         <v>9</v>
@@ -9801,13 +9787,13 @@
         <v>0</v>
       </c>
       <c r="B48" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C48" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="C48" s="29" t="s">
-        <v>345</v>
-      </c>
       <c r="D48" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>50</v>
@@ -9824,13 +9810,13 @@
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G49" s="29" t="s">
         <v>45</v>
@@ -9845,13 +9831,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>347</v>
-      </c>
       <c r="D50" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>46</v>
@@ -9868,13 +9854,13 @@
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G51" s="29" t="s">
         <v>45</v>
@@ -9891,19 +9877,19 @@
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E52" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="E52" s="29" t="s">
-        <v>349</v>
-      </c>
       <c r="F52" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I52" s="29">
         <v>2</v>
@@ -9914,13 +9900,13 @@
         <v>0</v>
       </c>
       <c r="B53" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C53" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>351</v>
-      </c>
       <c r="D53" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>46</v>
@@ -9937,13 +9923,13 @@
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E54" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>45</v>
@@ -9960,19 +9946,19 @@
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="E55" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="E55" s="29" t="s">
-        <v>353</v>
-      </c>
       <c r="F55" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I55" s="29">
         <v>1</v>
@@ -9983,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="B56" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="C56" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>356</v>
-      </c>
       <c r="D56" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E56" s="29" t="s">
         <v>46</v>
@@ -10006,13 +9992,13 @@
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E57" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G57" s="29" t="s">
         <v>45</v>
@@ -10027,13 +10013,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>358</v>
-      </c>
       <c r="D58" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>46</v>
@@ -10050,13 +10036,13 @@
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G59" s="29" t="s">
         <v>45</v>
@@ -10071,13 +10057,13 @@
         <v>0</v>
       </c>
       <c r="B60" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>360</v>
-      </c>
       <c r="D60" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>46</v>
@@ -10094,13 +10080,13 @@
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G61" s="29" t="s">
         <v>45</v>
@@ -10115,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>283</v>
@@ -10138,13 +10124,13 @@
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G63" s="29" t="s">
         <v>45</v>
@@ -10159,13 +10145,13 @@
         <v>0</v>
       </c>
       <c r="B64" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="C64" s="29" t="s">
-        <v>363</v>
-      </c>
       <c r="D64" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>46</v>
@@ -10182,13 +10168,13 @@
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E65" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G65" s="29" t="s">
         <v>45</v>
@@ -10203,13 +10189,13 @@
         <v>0</v>
       </c>
       <c r="B66" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="C66" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="C66" s="29" t="s">
-        <v>365</v>
-      </c>
       <c r="D66" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>50</v>
@@ -10226,13 +10212,13 @@
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E67" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G67" s="29" t="s">
         <v>45</v>
@@ -10247,13 +10233,13 @@
         <v>0</v>
       </c>
       <c r="B68" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="C68" s="29" t="s">
-        <v>367</v>
-      </c>
       <c r="D68" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E68" s="29" t="s">
         <v>46</v>
@@ -10270,13 +10256,13 @@
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>45</v>
@@ -10316,13 +10302,13 @@
       </c>
       <c r="C71" s="29"/>
       <c r="D71" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G71" s="29" t="s">
         <v>43</v>
@@ -10339,19 +10325,19 @@
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G72" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H72" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I72" s="29">
         <v>18</v>
@@ -10364,19 +10350,19 @@
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G73" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I73" s="29">
         <v>9</v>
@@ -10389,13 +10375,13 @@
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G74" s="29" t="s">
         <v>43</v>
@@ -10412,19 +10398,19 @@
       </c>
       <c r="C75" s="29"/>
       <c r="D75" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G75" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I75" s="29">
         <v>18</v>
@@ -10437,19 +10423,19 @@
       </c>
       <c r="C76" s="29"/>
       <c r="D76" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E76" s="29" t="s">
         <v>58</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G76" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I76" s="29">
         <v>9</v>
@@ -10462,13 +10448,13 @@
       </c>
       <c r="C77" s="29"/>
       <c r="D77" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E77" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G77" s="29" t="s">
         <v>43</v>
@@ -10485,19 +10471,19 @@
       </c>
       <c r="C78" s="29"/>
       <c r="D78" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E78" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G78" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H78" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I78" s="29">
         <v>18</v>
@@ -10510,19 +10496,19 @@
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E79" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G79" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H79" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I79" s="29">
         <v>9</v>
@@ -10533,13 +10519,13 @@
         <v>0</v>
       </c>
       <c r="B80" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="C80" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="C80" s="29" t="s">
-        <v>369</v>
-      </c>
       <c r="D80" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>46</v>
@@ -10556,13 +10542,13 @@
       </c>
       <c r="C81" s="29"/>
       <c r="D81" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G81" s="29" t="s">
         <v>45</v>
@@ -10577,13 +10563,13 @@
         <v>0</v>
       </c>
       <c r="B82" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C82" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="C82" s="29" t="s">
-        <v>371</v>
-      </c>
       <c r="D82" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>46</v>
@@ -10600,13 +10586,13 @@
       </c>
       <c r="C83" s="29"/>
       <c r="D83" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E83" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G83" s="29" t="s">
         <v>45</v>
@@ -10646,13 +10632,13 @@
       </c>
       <c r="C85" s="29"/>
       <c r="D85" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E85" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G85" s="29" t="s">
         <v>43</v>
@@ -10669,19 +10655,19 @@
       </c>
       <c r="C86" s="29"/>
       <c r="D86" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E86" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G86" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I86" s="29">
         <v>18</v>
@@ -10694,19 +10680,19 @@
       </c>
       <c r="C87" s="29"/>
       <c r="D87" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E87" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G87" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I87" s="29">
         <v>9</v>
@@ -10719,13 +10705,13 @@
       </c>
       <c r="C88" s="29"/>
       <c r="D88" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E88" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G88" s="29" t="s">
         <v>43</v>
@@ -10742,19 +10728,19 @@
       </c>
       <c r="C89" s="29"/>
       <c r="D89" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E89" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G89" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H89" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I89" s="29">
         <v>18</v>
@@ -10767,19 +10753,19 @@
       </c>
       <c r="C90" s="29"/>
       <c r="D90" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E90" s="29" t="s">
         <v>58</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G90" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H90" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I90" s="29">
         <v>9</v>
@@ -10792,13 +10778,13 @@
       </c>
       <c r="C91" s="29"/>
       <c r="D91" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E91" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F91" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G91" s="29" t="s">
         <v>43</v>
@@ -10815,19 +10801,19 @@
       </c>
       <c r="C92" s="29"/>
       <c r="D92" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E92" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G92" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H92" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I92" s="29">
         <v>18</v>
@@ -10840,19 +10826,19 @@
       </c>
       <c r="C93" s="29"/>
       <c r="D93" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E93" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G93" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H93" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I93" s="29">
         <v>9</v>
@@ -10863,13 +10849,13 @@
         <v>0</v>
       </c>
       <c r="B94" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C94" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="C94" s="29" t="s">
-        <v>373</v>
-      </c>
       <c r="D94" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E94" s="29" t="s">
         <v>46</v>
@@ -10886,13 +10872,13 @@
       </c>
       <c r="C95" s="29"/>
       <c r="D95" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E95" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G95" s="29" t="s">
         <v>45</v>
@@ -10932,13 +10918,13 @@
       </c>
       <c r="C97" s="29"/>
       <c r="D97" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E97" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G97" s="29" t="s">
         <v>43</v>
@@ -10955,19 +10941,19 @@
       </c>
       <c r="C98" s="29"/>
       <c r="D98" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E98" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F98" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G98" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H98" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I98" s="29">
         <v>18</v>
@@ -10980,19 +10966,19 @@
       </c>
       <c r="C99" s="29"/>
       <c r="D99" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E99" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G99" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I99" s="29">
         <v>9</v>
@@ -11005,13 +10991,13 @@
       </c>
       <c r="C100" s="29"/>
       <c r="D100" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E100" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G100" s="29" t="s">
         <v>43</v>
@@ -11028,19 +11014,19 @@
       </c>
       <c r="C101" s="29"/>
       <c r="D101" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E101" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G101" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I101" s="29">
         <v>18</v>
@@ -11053,19 +11039,19 @@
       </c>
       <c r="C102" s="29"/>
       <c r="D102" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E102" s="29" t="s">
         <v>58</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G102" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H102" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I102" s="29">
         <v>9</v>
@@ -11078,13 +11064,13 @@
       </c>
       <c r="C103" s="29"/>
       <c r="D103" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E103" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G103" s="29" t="s">
         <v>43</v>
@@ -11101,19 +11087,19 @@
       </c>
       <c r="C104" s="29"/>
       <c r="D104" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E104" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G104" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H104" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I104" s="29">
         <v>18</v>
@@ -11126,19 +11112,19 @@
       </c>
       <c r="C105" s="29"/>
       <c r="D105" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E105" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G105" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I105" s="29">
         <v>9</v>
@@ -11149,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="B106" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C106" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="C106" s="29" t="s">
-        <v>375</v>
-      </c>
       <c r="D106" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E106" s="29" t="s">
         <v>46</v>
@@ -11172,13 +11158,13 @@
       </c>
       <c r="C107" s="29"/>
       <c r="D107" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E107" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G107" s="29" t="s">
         <v>45</v>
@@ -11193,13 +11179,13 @@
         <v>0</v>
       </c>
       <c r="B108" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="C108" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="C108" s="29" t="s">
-        <v>377</v>
-      </c>
       <c r="D108" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E108" s="29" t="s">
         <v>46</v>
@@ -11216,13 +11202,13 @@
       </c>
       <c r="C109" s="29"/>
       <c r="D109" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E109" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G109" s="29" t="s">
         <v>45</v>
@@ -11237,13 +11223,13 @@
         <v>0</v>
       </c>
       <c r="B110" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="C110" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="C110" s="29" t="s">
-        <v>379</v>
-      </c>
       <c r="D110" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E110" s="29" t="s">
         <v>46</v>
@@ -11260,13 +11246,13 @@
       </c>
       <c r="C111" s="29"/>
       <c r="D111" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E111" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G111" s="29" t="s">
         <v>45</v>
@@ -11281,13 +11267,13 @@
         <v>0</v>
       </c>
       <c r="B112" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="C112" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="C112" s="29" t="s">
-        <v>381</v>
-      </c>
       <c r="D112" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E112" s="29" t="s">
         <v>46</v>
@@ -11304,13 +11290,13 @@
       </c>
       <c r="C113" s="29"/>
       <c r="D113" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E113" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F113" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G113" s="29" t="s">
         <v>45</v>
@@ -11325,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="B114" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="C114" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="C114" s="29" t="s">
-        <v>383</v>
-      </c>
       <c r="D114" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E114" s="29" t="s">
         <v>50</v>
@@ -11348,13 +11334,13 @@
       </c>
       <c r="C115" s="29"/>
       <c r="D115" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E115" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F115" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G115" s="29" t="s">
         <v>45</v>
@@ -11369,13 +11355,13 @@
         <v>0</v>
       </c>
       <c r="B116" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="C116" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="C116" s="29" t="s">
-        <v>385</v>
-      </c>
       <c r="D116" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E116" s="29" t="s">
         <v>46</v>
@@ -11392,13 +11378,13 @@
       </c>
       <c r="C117" s="29"/>
       <c r="D117" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E117" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F117" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G117" s="29" t="s">
         <v>45</v>
@@ -11413,13 +11399,13 @@
         <v>0</v>
       </c>
       <c r="B118" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="C118" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="C118" s="29" t="s">
-        <v>387</v>
-      </c>
       <c r="D118" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E118" s="29" t="s">
         <v>46</v>
@@ -11436,13 +11422,13 @@
       </c>
       <c r="C119" s="29"/>
       <c r="D119" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E119" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G119" s="29" t="s">
         <v>45</v>
@@ -11459,19 +11445,19 @@
       </c>
       <c r="C120" s="29"/>
       <c r="D120" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="E120" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="E120" s="29" t="s">
-        <v>389</v>
-      </c>
       <c r="F120" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G120" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H120" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I120" s="29">
         <v>10</v>
@@ -11482,13 +11468,13 @@
         <v>0</v>
       </c>
       <c r="B121" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="C121" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="C121" s="29" t="s">
-        <v>391</v>
-      </c>
       <c r="D121" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E121" s="29" t="s">
         <v>46</v>
@@ -11505,13 +11491,13 @@
       </c>
       <c r="C122" s="29"/>
       <c r="D122" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E122" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F122" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G122" s="29" t="s">
         <v>45</v>
@@ -11526,13 +11512,13 @@
         <v>0</v>
       </c>
       <c r="B123" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C123" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="C123" s="29" t="s">
-        <v>393</v>
-      </c>
       <c r="D123" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E123" s="29" t="s">
         <v>50</v>
@@ -11549,13 +11535,13 @@
       </c>
       <c r="C124" s="29"/>
       <c r="D124" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E124" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F124" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G124" s="29" t="s">
         <v>45</v>
@@ -11570,13 +11556,13 @@
         <v>0</v>
       </c>
       <c r="B125" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="C125" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="C125" s="29" t="s">
-        <v>395</v>
-      </c>
       <c r="D125" s="29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E125" s="29" t="s">
         <v>46</v>
@@ -11593,13 +11579,13 @@
       </c>
       <c r="C126" s="29"/>
       <c r="D126" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E126" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F126" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G126" s="29" t="s">
         <v>45</v>
@@ -11614,13 +11600,13 @@
         <v>0</v>
       </c>
       <c r="B127" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="C127" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="C127" s="29" t="s">
-        <v>397</v>
-      </c>
       <c r="D127" s="29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E127" s="29" t="s">
         <v>46</v>
@@ -11637,13 +11623,13 @@
       </c>
       <c r="C128" s="29"/>
       <c r="D128" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E128" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F128" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G128" s="29" t="s">
         <v>45</v>
@@ -11660,19 +11646,19 @@
       </c>
       <c r="C129" s="29"/>
       <c r="D129" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="E129" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="E129" s="29" t="s">
-        <v>399</v>
-      </c>
       <c r="F129" s="29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G129" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H129" s="29" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I129" s="29">
         <v>1</v>
@@ -11683,13 +11669,13 @@
         <v>0</v>
       </c>
       <c r="B130" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="C130" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="C130" s="29" t="s">
-        <v>402</v>
-      </c>
       <c r="D130" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E130" s="29" t="s">
         <v>50</v>
@@ -11706,13 +11692,13 @@
       </c>
       <c r="C131" s="29"/>
       <c r="D131" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E131" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G131" s="29" t="s">
         <v>45</v>
@@ -11727,13 +11713,13 @@
         <v>0</v>
       </c>
       <c r="B132" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="C132" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="C132" s="29" t="s">
-        <v>404</v>
-      </c>
       <c r="D132" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E132" s="29" t="s">
         <v>46</v>
@@ -11750,13 +11736,13 @@
       </c>
       <c r="C133" s="29"/>
       <c r="D133" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E133" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G133" s="29" t="s">
         <v>45</v>
@@ -11771,13 +11757,13 @@
         <v>0</v>
       </c>
       <c r="B134" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="C134" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="C134" s="29" t="s">
-        <v>406</v>
-      </c>
       <c r="D134" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E134" s="29" t="s">
         <v>46</v>
@@ -11794,13 +11780,13 @@
       </c>
       <c r="C135" s="29"/>
       <c r="D135" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E135" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F135" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G135" s="29" t="s">
         <v>45</v>
@@ -11840,13 +11826,13 @@
       </c>
       <c r="C137" s="29"/>
       <c r="D137" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E137" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F137" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G137" s="29" t="s">
         <v>43</v>
@@ -11863,19 +11849,19 @@
       </c>
       <c r="C138" s="29"/>
       <c r="D138" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E138" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F138" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G138" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H138" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I138" s="29">
         <v>18</v>
@@ -11888,19 +11874,19 @@
       </c>
       <c r="C139" s="29"/>
       <c r="D139" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E139" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F139" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G139" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H139" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I139" s="29">
         <v>9</v>
@@ -11913,13 +11899,13 @@
       </c>
       <c r="C140" s="29"/>
       <c r="D140" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E140" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F140" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G140" s="29" t="s">
         <v>43</v>
@@ -11936,19 +11922,19 @@
       </c>
       <c r="C141" s="29"/>
       <c r="D141" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E141" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F141" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G141" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H141" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I141" s="29">
         <v>18</v>
@@ -11961,19 +11947,19 @@
       </c>
       <c r="C142" s="29"/>
       <c r="D142" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E142" s="29" t="s">
         <v>58</v>
       </c>
       <c r="F142" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G142" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H142" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I142" s="29">
         <v>9</v>
@@ -11986,13 +11972,13 @@
       </c>
       <c r="C143" s="29"/>
       <c r="D143" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E143" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F143" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G143" s="29" t="s">
         <v>43</v>
@@ -12009,19 +11995,19 @@
       </c>
       <c r="C144" s="29"/>
       <c r="D144" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E144" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F144" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G144" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H144" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I144" s="29">
         <v>18</v>
@@ -12034,19 +12020,19 @@
       </c>
       <c r="C145" s="29"/>
       <c r="D145" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E145" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F145" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G145" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H145" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I145" s="29">
         <v>9</v>
@@ -12057,13 +12043,13 @@
         <v>0</v>
       </c>
       <c r="B146" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="C146" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="C146" s="29" t="s">
-        <v>408</v>
-      </c>
       <c r="D146" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E146" s="29" t="s">
         <v>50</v>
@@ -12080,13 +12066,13 @@
       </c>
       <c r="C147" s="29"/>
       <c r="D147" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E147" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F147" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G147" s="29" t="s">
         <v>45</v>
@@ -12101,13 +12087,13 @@
         <v>0</v>
       </c>
       <c r="B148" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="C148" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="C148" s="29" t="s">
-        <v>410</v>
-      </c>
       <c r="D148" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E148" s="29" t="s">
         <v>46</v>
@@ -12124,13 +12110,13 @@
       </c>
       <c r="C149" s="29"/>
       <c r="D149" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E149" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F149" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G149" s="29" t="s">
         <v>45</v>
@@ -12170,13 +12156,13 @@
       </c>
       <c r="C151" s="29"/>
       <c r="D151" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E151" s="29" t="s">
         <v>53</v>
       </c>
       <c r="F151" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G151" s="29" t="s">
         <v>43</v>
@@ -12193,19 +12179,19 @@
       </c>
       <c r="C152" s="29"/>
       <c r="D152" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E152" s="29" t="s">
         <v>54</v>
       </c>
       <c r="F152" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G152" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H152" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I152" s="29">
         <v>18</v>
@@ -12218,19 +12204,19 @@
       </c>
       <c r="C153" s="29"/>
       <c r="D153" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E153" s="29" t="s">
         <v>55</v>
       </c>
       <c r="F153" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G153" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H153" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I153" s="29">
         <v>9</v>
@@ -12243,13 +12229,13 @@
       </c>
       <c r="C154" s="29"/>
       <c r="D154" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E154" s="29" t="s">
         <v>56</v>
       </c>
       <c r="F154" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G154" s="29" t="s">
         <v>43</v>
@@ -12266,19 +12252,19 @@
       </c>
       <c r="C155" s="29"/>
       <c r="D155" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E155" s="29" t="s">
         <v>57</v>
       </c>
       <c r="F155" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G155" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H155" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I155" s="29">
         <v>18</v>
@@ -12291,19 +12277,19 @@
       </c>
       <c r="C156" s="29"/>
       <c r="D156" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E156" s="29" t="s">
         <v>58</v>
       </c>
       <c r="F156" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G156" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H156" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I156" s="29">
         <v>9</v>
@@ -12316,13 +12302,13 @@
       </c>
       <c r="C157" s="29"/>
       <c r="D157" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E157" s="29" t="s">
         <v>59</v>
       </c>
       <c r="F157" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G157" s="29" t="s">
         <v>43</v>
@@ -12339,19 +12325,19 @@
       </c>
       <c r="C158" s="29"/>
       <c r="D158" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E158" s="29" t="s">
         <v>60</v>
       </c>
       <c r="F158" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G158" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H158" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I158" s="29">
         <v>18</v>
@@ -12364,19 +12350,19 @@
       </c>
       <c r="C159" s="29"/>
       <c r="D159" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E159" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F159" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G159" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H159" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I159" s="29">
         <v>9</v>
@@ -12387,13 +12373,13 @@
         <v>0</v>
       </c>
       <c r="B160" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="C160" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="C160" s="29" t="s">
-        <v>412</v>
-      </c>
       <c r="D160" s="29" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E160" s="29" t="s">
         <v>46</v>
@@ -12410,13 +12396,13 @@
       </c>
       <c r="C161" s="29"/>
       <c r="D161" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E161" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F161" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G161" s="29" t="s">
         <v>45</v>
@@ -12431,13 +12417,13 @@
         <v>0</v>
       </c>
       <c r="B162" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="C162" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="C162" s="29" t="s">
-        <v>414</v>
-      </c>
       <c r="D162" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E162" s="29" t="s">
         <v>46</v>
@@ -12454,13 +12440,13 @@
       </c>
       <c r="C163" s="29"/>
       <c r="D163" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E163" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F163" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G163" s="29" t="s">
         <v>45</v>
@@ -12477,19 +12463,19 @@
       </c>
       <c r="C164" s="29"/>
       <c r="D164" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="E164" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="E164" s="29" t="s">
-        <v>416</v>
-      </c>
       <c r="F164" s="29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G164" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H164" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I164" s="29">
         <v>10</v>
@@ -12500,13 +12486,13 @@
         <v>0</v>
       </c>
       <c r="B165" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="C165" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="C165" s="29" t="s">
-        <v>418</v>
-      </c>
       <c r="D165" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E165" s="29" t="s">
         <v>46</v>
@@ -12523,13 +12509,13 @@
       </c>
       <c r="C166" s="29"/>
       <c r="D166" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E166" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F166" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G166" s="29" t="s">
         <v>45</v>
@@ -12544,13 +12530,13 @@
         <v>0</v>
       </c>
       <c r="B167" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="C167" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C167" s="29" t="s">
-        <v>420</v>
-      </c>
       <c r="D167" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E167" s="29" t="s">
         <v>46</v>
@@ -12567,13 +12553,13 @@
       </c>
       <c r="C168" s="29"/>
       <c r="D168" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E168" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F168" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G168" s="29" t="s">
         <v>45</v>
@@ -12588,13 +12574,13 @@
         <v>0</v>
       </c>
       <c r="B169" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="C169" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="C169" s="29" t="s">
-        <v>422</v>
-      </c>
       <c r="D169" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E169" s="29" t="s">
         <v>46</v>
@@ -12611,13 +12597,13 @@
       </c>
       <c r="C170" s="29"/>
       <c r="D170" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E170" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F170" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G170" s="29" t="s">
         <v>45</v>
@@ -12632,13 +12618,13 @@
         <v>0</v>
       </c>
       <c r="B171" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="C171" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="C171" s="29" t="s">
-        <v>424</v>
-      </c>
       <c r="D171" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E171" s="29" t="s">
         <v>46</v>
@@ -12655,13 +12641,13 @@
       </c>
       <c r="C172" s="29"/>
       <c r="D172" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E172" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F172" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G172" s="29" t="s">
         <v>45</v>
@@ -12678,13 +12664,13 @@
       </c>
       <c r="C173" s="29"/>
       <c r="D173" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="E173" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="E173" s="29" t="s">
-        <v>426</v>
-      </c>
       <c r="F173" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G173" s="29" t="s">
         <v>44</v>
@@ -12701,19 +12687,19 @@
       </c>
       <c r="C174" s="29"/>
       <c r="D174" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="E174" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="E174" s="29" t="s">
-        <v>428</v>
-      </c>
       <c r="F174" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G174" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H174" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I174" s="29">
         <v>9</v>
@@ -12726,19 +12712,19 @@
       </c>
       <c r="C175" s="29"/>
       <c r="D175" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="E175" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="E175" s="29" t="s">
-        <v>430</v>
-      </c>
       <c r="F175" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G175" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H175" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I175" s="29">
         <v>16</v>
@@ -12749,13 +12735,13 @@
         <v>0</v>
       </c>
       <c r="B176" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="C176" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="C176" s="29" t="s">
-        <v>432</v>
-      </c>
       <c r="D176" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E176" s="29" t="s">
         <v>46</v>
@@ -12772,13 +12758,13 @@
       </c>
       <c r="C177" s="29"/>
       <c r="D177" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E177" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F177" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G177" s="29" t="s">
         <v>45</v>
@@ -12795,19 +12781,19 @@
       </c>
       <c r="C178" s="29"/>
       <c r="D178" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E178" s="29" t="s">
         <v>41</v>
       </c>
       <c r="F178" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G178" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H178" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I178" s="29">
         <v>30</v>
@@ -12841,13 +12827,13 @@
       </c>
       <c r="C180" s="29"/>
       <c r="D180" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E180" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F180" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G180" s="29" t="s">
         <v>45</v>
@@ -12862,13 +12848,13 @@
         <v>0</v>
       </c>
       <c r="B181" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="C181" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="C181" s="29" t="s">
-        <v>435</v>
-      </c>
       <c r="D181" s="29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E181" s="29" t="s">
         <v>46</v>
@@ -12885,13 +12871,13 @@
       </c>
       <c r="C182" s="29"/>
       <c r="D182" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E182" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F182" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G182" s="29" t="s">
         <v>45</v>
@@ -12906,13 +12892,13 @@
         <v>0</v>
       </c>
       <c r="B183" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C183" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="C183" s="29" t="s">
-        <v>437</v>
-      </c>
       <c r="D183" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E183" s="29" t="s">
         <v>46</v>
@@ -12929,13 +12915,13 @@
       </c>
       <c r="C184" s="29"/>
       <c r="D184" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E184" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F184" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G184" s="29" t="s">
         <v>45</v>
@@ -12950,13 +12936,13 @@
         <v>0</v>
       </c>
       <c r="B185" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="C185" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="C185" s="29" t="s">
-        <v>439</v>
-      </c>
       <c r="D185" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E185" s="29" t="s">
         <v>51</v>
@@ -12973,20 +12959,20 @@
       </c>
       <c r="C186" s="29"/>
       <c r="D186" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="E186" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="E186" s="29" t="s">
-        <v>441</v>
-      </c>
       <c r="F186" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G186" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H186" s="29"/>
       <c r="I186" s="29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -12996,20 +12982,20 @@
       </c>
       <c r="C187" s="29"/>
       <c r="D187" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="E187" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="E187" s="29" t="s">
-        <v>444</v>
-      </c>
       <c r="F187" s="29" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G187" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H187" s="29"/>
       <c r="I187" s="29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -13019,20 +13005,20 @@
       </c>
       <c r="C188" s="29"/>
       <c r="D188" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="E188" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="E188" s="29" t="s">
-        <v>447</v>
-      </c>
       <c r="F188" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G188" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H188" s="29"/>
       <c r="I188" s="29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -13042,13 +13028,13 @@
       </c>
       <c r="C189" s="29"/>
       <c r="D189" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E189" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="E189" s="29" t="s">
-        <v>450</v>
-      </c>
       <c r="F189" s="29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G189" s="29" t="s">
         <v>48</v>
@@ -13063,13 +13049,13 @@
       </c>
       <c r="C190" s="29"/>
       <c r="D190" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="E190" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="E190" s="29" t="s">
-        <v>452</v>
-      </c>
       <c r="F190" s="29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G190" s="29" t="s">
         <v>43</v>
@@ -13086,13 +13072,13 @@
       </c>
       <c r="C191" s="29"/>
       <c r="D191" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E191" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="E191" s="29" t="s">
-        <v>454</v>
-      </c>
       <c r="F191" s="29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G191" s="29" t="s">
         <v>43</v>
@@ -13109,20 +13095,20 @@
       </c>
       <c r="C192" s="29"/>
       <c r="D192" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="E192" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="E192" s="29" t="s">
-        <v>456</v>
-      </c>
       <c r="F192" s="29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G192" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H192" s="29"/>
       <c r="I192" s="29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -13132,20 +13118,20 @@
       </c>
       <c r="C193" s="29"/>
       <c r="D193" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="E193" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="E193" s="29" t="s">
-        <v>459</v>
-      </c>
       <c r="F193" s="29" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G193" s="29" t="s">
         <v>48</v>
       </c>
       <c r="H193" s="29"/>
       <c r="I193" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -13155,13 +13141,13 @@
       </c>
       <c r="C194" s="29"/>
       <c r="D194" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="E194" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="E194" s="29" t="s">
-        <v>462</v>
-      </c>
       <c r="F194" s="29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G194" s="29" t="s">
         <v>44</v>
@@ -13178,13 +13164,13 @@
       </c>
       <c r="C195" s="29"/>
       <c r="D195" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E195" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F195" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G195" s="29" t="s">
         <v>43</v>
@@ -13201,13 +13187,13 @@
       </c>
       <c r="C196" s="29"/>
       <c r="D196" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E196" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F196" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G196" s="29" t="s">
         <v>43</v>
@@ -13224,13 +13210,13 @@
       </c>
       <c r="C197" s="29"/>
       <c r="D197" s="29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E197" s="29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F197" s="29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G197" s="29" t="s">
         <v>43</v>
@@ -13245,13 +13231,13 @@
         <v>0</v>
       </c>
       <c r="B198" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="C198" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="C198" s="29" t="s">
-        <v>467</v>
-      </c>
       <c r="D198" s="29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E198" s="29" t="s">
         <v>46</v>
@@ -13268,13 +13254,13 @@
       </c>
       <c r="C199" s="29"/>
       <c r="D199" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E199" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F199" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G199" s="29" t="s">
         <v>45</v>
@@ -13289,13 +13275,13 @@
         <v>0</v>
       </c>
       <c r="B200" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="C200" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="C200" s="29" t="s">
-        <v>469</v>
-      </c>
       <c r="D200" s="29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E200" s="29" t="s">
         <v>46</v>
@@ -13312,13 +13298,13 @@
       </c>
       <c r="C201" s="29"/>
       <c r="D201" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E201" s="29" t="s">
         <v>262</v>
       </c>
       <c r="F201" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G201" s="29" t="s">
         <v>45</v>
@@ -13335,19 +13321,19 @@
       </c>
       <c r="C202" s="29"/>
       <c r="D202" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="E202" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="E202" s="29" t="s">
-        <v>471</v>
-      </c>
       <c r="F202" s="29" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G202" s="29" t="s">
         <v>44</v>
       </c>
       <c r="H202" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I202" s="29">
         <v>15</v>
